--- a/regionseng/6/transport and communication/transport and storage.xlsx
+++ b/regionseng/6/transport and communication/transport and storage.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -182,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -258,6 +258,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:P1"/>
@@ -576,7 +579,7 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
@@ -596,7 +599,7 @@
       <c r="O1" s="31"/>
       <c r="P1" s="31"/>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="9">
         <v>2006</v>
@@ -643,8 +646,14 @@
       <c r="P3" s="29">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="29">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="29">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -693,8 +702,14 @@
       <c r="P4" s="30">
         <v>131.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="30">
+        <v>204.1</v>
+      </c>
+      <c r="R4" s="8">
+        <v>265.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -743,8 +758,14 @@
       <c r="P5" s="30">
         <v>133.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="30">
+        <v>135.9</v>
+      </c>
+      <c r="R5" s="8">
+        <v>197.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
@@ -793,8 +814,14 @@
       <c r="P6" s="30">
         <v>1838</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="30">
+        <v>2848</v>
+      </c>
+      <c r="R6" s="8">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
@@ -843,8 +870,14 @@
       <c r="P7" s="30">
         <v>795</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="30">
+        <v>1588</v>
+      </c>
+      <c r="R7" s="8">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
@@ -893,8 +926,14 @@
       <c r="P8" s="30">
         <v>635</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="30">
+        <v>657.5</v>
+      </c>
+      <c r="R8" s="28">
+        <v>1017.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -943,8 +982,14 @@
       <c r="P9" s="30">
         <v>98.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="30">
+        <v>73.3</v>
+      </c>
+      <c r="R9" s="8">
+        <v>114.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1038,14 @@
       <c r="P10" s="30">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="30">
+        <v>12.7</v>
+      </c>
+      <c r="R10" s="8">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1043,8 +1094,14 @@
       <c r="P11" s="30">
         <v>34.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="30">
+        <v>62.6</v>
+      </c>
+      <c r="R11" s="8">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1093,8 +1150,14 @@
       <c r="P12" s="30">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="30">
+        <v>9.4</v>
+      </c>
+      <c r="R12" s="8">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1143,8 +1206,14 @@
       <c r="P13" s="30">
         <v>95.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="30">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="R13" s="8">
+        <v>183.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
@@ -1193,8 +1262,14 @@
       <c r="P14" s="30" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q14" s="30">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="R14" s="32">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>

--- a/regionseng/6/transport and communication/transport and storage.xlsx
+++ b/regionseng/6/transport and communication/transport and storage.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4A7925-879E-42F7-9A6F-1F6E514469EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="21465" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -182,12 +183,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -202,10 +203,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -228,9 +226,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -250,17 +245,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -355,6 +350,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -390,6 +402,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -565,11 +594,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -579,27 +611,27 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="9">
         <v>2006</v>
@@ -631,645 +663,681 @@
       <c r="K3" s="11">
         <v>2015</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="10">
         <v>2016</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="10">
         <v>2017</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="12">
         <v>2018</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="12">
         <v>2019</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="27">
         <v>2020</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3" s="27">
         <v>2021</v>
       </c>
-      <c r="R3" s="29">
+      <c r="R3" s="27">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="27">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>7.9073700000000002</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>12.37879</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>14.86505</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>9.5666899999999995</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>18.564070000000001</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>15.401300000000001</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>16.7</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>13.4</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <v>16.872499999999999</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="16">
         <v>42.056400000000004</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="17">
         <v>36.700000000000003</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="13">
         <v>100.15097</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="13">
         <v>131.63396</v>
       </c>
       <c r="O4" s="8">
         <v>167.4</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="28">
         <v>131.6</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="28">
         <v>204.1</v>
       </c>
       <c r="R4" s="8">
         <v>265.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" s="8">
+        <v>235.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>8.0942900000000009</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>12.062279999999999</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>12.66386</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>9.0144699999999993</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>17.960730000000002</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>15.399889999999999</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>15.7</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <v>13.4</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>17.100000000000001</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="17">
         <v>37.200000000000003</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="17">
         <v>36.299999999999997</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="13">
         <v>52.02205</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="13">
         <v>86.915430000000001</v>
       </c>
       <c r="O5" s="8">
         <v>156.6</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="28">
         <v>133.4</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="28">
         <v>135.9</v>
       </c>
       <c r="R5" s="8">
         <v>197.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" s="8">
+        <v>191.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>1628.0431699999999</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>1405.4969100000001</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>1674.9408599999999</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>979.18430000000001</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>1111.1505299999999</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>813.80939999999998</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>1087</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>983</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="17">
         <v>1432</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="17">
         <v>1693</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="17">
         <v>1439</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="18">
         <v>1644.47372</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="18">
         <v>1776.48552</v>
       </c>
       <c r="O6" s="8">
         <v>2439</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="28">
         <v>1838</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="28">
         <v>2848</v>
       </c>
       <c r="R6" s="8">
         <v>2848</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" s="8">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>1293.5151599999999</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>1120.4532099999999</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>1456.5881999999999</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>802.08822999999995</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>982.50000999999997</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>750.87501999999995</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>1009</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <v>918</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <v>1288</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="17">
         <v>1023</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="17">
         <v>785</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="18">
         <v>793.67308000000003</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="18">
         <v>1523.57313</v>
       </c>
       <c r="O7" s="8">
         <v>1534</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="28">
         <v>795</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="28">
         <v>1588</v>
       </c>
       <c r="R7" s="8">
         <v>1597</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="8">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>111.447363</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>139.63879700000001</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>179.07780500000001</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>217.047708</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>288.73664600000001</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>302.53285299999999</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>325.3</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <v>298.3</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="16">
         <v>231.6</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="16">
         <v>346.4</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="17">
         <v>406.8</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="13">
         <v>445.43640499999998</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="13">
         <v>759.06571299999996</v>
       </c>
       <c r="O8" s="8">
         <v>560.6</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="28">
         <v>635</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="28">
         <v>657.5</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="26">
         <v>1017.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="26">
+        <v>1010.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>4.4356</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>6.7223899999999999</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>6.99017</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>4.5225999999999997</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>8.2788000000000004</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>9.0851100000000002</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <v>7.3</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="16">
         <v>7.5472000000000001</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="16">
         <v>19.481000000000002</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="16">
         <v>17</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="13">
         <v>25.65326</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="13">
         <v>22.529219999999999</v>
       </c>
       <c r="O9" s="8">
         <v>127.9</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="28">
         <v>98.5</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="28">
         <v>73.3</v>
       </c>
       <c r="R9" s="8">
         <v>114.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="26">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>2.1575000000000002</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>2.2914099999999999</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>3.1330399999999998</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>2.1226400000000001</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>3.40422</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>2.7259600000000002</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>3.9</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <v>3.3</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <v>3.5796000000000001</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="16">
         <v>4.2516999999999996</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="17">
         <v>3.8</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="13">
         <v>4.2423799999999998</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="13">
         <v>13.877890000000001</v>
       </c>
       <c r="O10" s="8">
         <v>10.4</v>
       </c>
-      <c r="P10" s="30">
+      <c r="P10" s="28">
         <v>6.1</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="Q10" s="28">
         <v>12.7</v>
       </c>
       <c r="R10" s="8">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="8">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>3.6587399999999999</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>5.3399099999999997</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>5.6737700000000002</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>4.4918899999999997</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>9.6819400000000009</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>6.3147799999999998</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>6.8</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>6.1</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>9.5190999999999999</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="16">
         <v>17.699900000000003</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="16">
         <v>19.3</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="13">
         <v>26.3688</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="13">
         <v>64.386189999999999</v>
       </c>
       <c r="O11" s="8">
         <v>28.7</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="28">
         <v>34.9</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="28">
         <v>62.6</v>
       </c>
       <c r="R11" s="8">
         <v>83.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="8">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>0.63926000000000005</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>0.86575000000000002</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>4.00631</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>0.80301</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>1.1212800000000001</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>0.62914999999999999</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <v>0.5</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="14">
         <v>0</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>3.4568000000000003</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <v>0.75270000000000004</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="17">
         <v>1.9</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="13">
         <v>2.1449099999999999</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="13">
         <v>1.7130700000000001</v>
       </c>
       <c r="O12" s="8">
         <v>0.7</v>
       </c>
-      <c r="P12" s="30">
+      <c r="P12" s="28">
         <v>3.8</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="28">
         <v>9.4</v>
       </c>
       <c r="R12" s="8">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="8">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>7.0079500000000001</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>9.2835099999999997</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>5.3273799999999998</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>8.3825599999999998</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>9.45289</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="15">
         <v>7.5</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="14">
         <v>6.4847000000000001</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="14">
         <v>23.986000000000001</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="15">
         <v>16.899999999999999</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="13">
         <v>74.335819999999998</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="13">
         <v>66.469089999999994</v>
       </c>
       <c r="O13" s="8">
         <v>165.7</v>
       </c>
-      <c r="P13" s="30">
+      <c r="P13" s="28">
         <v>95.5</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="Q13" s="28">
         <v>145.80000000000001</v>
       </c>
       <c r="R13" s="8">
         <v>183.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="S13" s="8">
+        <v>137.30000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="21">
         <v>0.48899999999999999</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="21">
         <v>2.3911799999999999</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="21">
         <v>0.63254999999999995</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="21">
         <v>0.86051999999999995</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="21">
         <v>0.15415999999999999</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="22">
         <v>1</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="22">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="24">
         <v>5.0816000000000008</v>
       </c>
-      <c r="L14" s="27">
+      <c r="L14" s="25">
         <v>0.4</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="21">
         <v>48.311619999999998</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="21">
         <v>44.71855</v>
       </c>
-      <c r="O14" s="28">
+      <c r="O14" s="26">
         <v>38</v>
       </c>
-      <c r="P14" s="30" t="s">
+      <c r="P14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="Q14" s="28">
         <v>72.599999999999994</v>
       </c>
-      <c r="R14" s="32">
+      <c r="R14" s="29">
         <v>70.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="S14" s="29">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
